--- a/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,25; 100,0</t>
+          <t>85,57; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,13; 100,0</t>
+          <t>89,06; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,38; 96,45</t>
+          <t>71,32; 96,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,19; 100,0</t>
+          <t>93,99; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,8; 100,0</t>
+          <t>92,31; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,42; 100,0</t>
+          <t>93,34; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,27; 100,0</t>
+          <t>85,26; 98,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,89; 100,0</t>
+          <t>95,81; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,67; 99,1</t>
+          <t>91,78; 99,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,45; 97,92</t>
+          <t>90,82; 97,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,93; 98,04</t>
+          <t>90,6; 98,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 99,55</t>
+          <t>93,22; 99,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,49; 98,63</t>
+          <t>92,22; 98,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,71; 99,5</t>
+          <t>95,31; 99,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,95; 97,92</t>
+          <t>92,1; 97,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,08; 98,26</t>
+          <t>93,04; 98,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,42; 98,13</t>
+          <t>93,28; 98,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,82; 98,47</t>
+          <t>94,62; 98,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,88; 97,38</t>
+          <t>93,0; 97,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,44; 98,17</t>
+          <t>94,69; 98,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,51; 95,35</t>
+          <t>86,76; 95,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,01; 96,75</t>
+          <t>88,61; 96,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,01; 94,09</t>
+          <t>86,13; 94,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,61; 92,26</t>
+          <t>80,98; 92,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,77; 95,81</t>
+          <t>89,2; 95,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,03; 97,7</t>
+          <t>93,06; 97,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,59; 97,9</t>
+          <t>93,32; 97,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,28; 93,68</t>
+          <t>87,33; 93,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,81; 94,88</t>
+          <t>89,68; 94,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,75; 96,76</t>
+          <t>92,66; 96,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,59</t>
+          <t>90,87; 95,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,04; 92,08</t>
+          <t>86,23; 92,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,44; 92,67</t>
+          <t>80,58; 92,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,31; 95,32</t>
+          <t>86,06; 95,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,5; 97,04</t>
+          <t>89,06; 97,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,67; 91,57</t>
+          <t>77,42; 91,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,38; 94,84</t>
+          <t>87,31; 95,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,0; 99,07</t>
+          <t>93,47; 98,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,54; 96,25</t>
+          <t>90,03; 96,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,89; 90,54</t>
+          <t>80,77; 90,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,25; 92,99</t>
+          <t>86,49; 93,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,91; 96,74</t>
+          <t>91,93; 96,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,29; 95,97</t>
+          <t>91,14; 95,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 89,99</t>
+          <t>81,47; 89,55</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,2; 91,32</t>
+          <t>82,15; 91,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,94; 95,38</t>
+          <t>87,51; 95,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,68; 90,5</t>
+          <t>80,27; 90,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,3; 93,47</t>
+          <t>85,15; 93,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,16; 96,36</t>
+          <t>91,24; 96,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,09</t>
+          <t>90,34; 95,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,51; 94,05</t>
+          <t>86,56; 93,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,48; 89,86</t>
+          <t>82,33; 90,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,76; 93,87</t>
+          <t>88,96; 93,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,23; 94,9</t>
+          <t>90,32; 95,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,89; 91,48</t>
+          <t>85,46; 91,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,54</t>
+          <t>85,1; 90,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>87,93; 92,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,13</t>
+          <t>91,02; 95,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,19; 93,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,71; 92,1</t>
+          <t>87,0; 92,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,15; 95,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,06</t>
+          <t>94,62; 97,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,25</t>
+          <t>92,4; 95,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,54</t>
+          <t>87,86; 91,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,2; 93,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,84</t>
+          <t>93,65; 95,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>91,39; 93,85</t>
+          <t>91,43; 93,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>88,16; 91,07</t>
+          <t>88,06; 91,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,57; 100,0</t>
+          <t>84,75; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,06; 100,0</t>
+          <t>87,97; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,32; 96,78</t>
+          <t>71,49; 96,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,31; 100,0</t>
+          <t>92,51; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,34; 100,0</t>
+          <t>93,59; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,26; 98,37</t>
+          <t>85,62; 98,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,78; 99,08</t>
+          <t>91,81; 99,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,82; 97,96</t>
+          <t>90,44; 97,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,6; 98,0</t>
+          <t>91,33; 98,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,22; 98,28</t>
+          <t>92,61; 98,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,31; 99,5</t>
+          <t>95,68; 99,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,1; 97,88</t>
+          <t>91,94; 97,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,28; 98,05</t>
+          <t>93,48; 98,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,62; 98,51</t>
+          <t>94,89; 98,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,0; 97,35</t>
+          <t>92,68; 97,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,76; 95,2</t>
+          <t>87,08; 95,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,61; 96,83</t>
+          <t>89,19; 97,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,13; 94,22</t>
+          <t>86,14; 93,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,2; 95,81</t>
+          <t>89,66; 95,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,06; 97,44</t>
+          <t>93,1; 97,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,32; 97,82</t>
+          <t>93,18; 97,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,68; 94,75</t>
+          <t>89,81; 94,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,66; 96,58</t>
+          <t>92,4; 96,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,87; 95,38</t>
+          <t>91,17; 95,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,58; 92,25</t>
+          <t>81,11; 92,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,06; 95,3</t>
+          <t>85,98; 95,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,06; 97,19</t>
+          <t>89,3; 97,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,31; 95,43</t>
+          <t>86,98; 94,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,47; 98,97</t>
+          <t>93,65; 98,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,03; 96,49</t>
+          <t>90,3; 96,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,49; 93,02</t>
+          <t>86,31; 92,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,93; 96,72</t>
+          <t>91,93; 96,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,14; 95,96</t>
+          <t>91,06; 96,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,15; 91,66</t>
+          <t>82,36; 91,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,51; 95,75</t>
+          <t>87,66; 95,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,27; 90,12</t>
+          <t>80,18; 90,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,24; 96,28</t>
+          <t>91,26; 96,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,34; 95,96</t>
+          <t>89,83; 95,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,56; 93,75</t>
+          <t>86,48; 94,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,96; 93,74</t>
+          <t>88,88; 93,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,25</t>
+          <t>90,46; 95,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,46; 91,46</t>
+          <t>85,73; 91,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,78</t>
+          <t>88,05; 92,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,02; 95,13</t>
+          <t>91,07; 94,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,19; 93,18</t>
+          <t>88,84; 93,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,15; 95,24</t>
+          <t>92,03; 95,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,62; 97,06</t>
+          <t>94,58; 97,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,4; 95,21</t>
+          <t>92,23; 95,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,2; 93,81</t>
+          <t>91,19; 93,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,65; 95,83</t>
+          <t>93,65; 95,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>91,43; 93,92</t>
+          <t>91,6; 93,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,75; 100,0</t>
+          <t>83,25; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,97; 100,0</t>
+          <t>89,13; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,49; 96,53</t>
+          <t>70,38; 96,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,99; 100,0</t>
+          <t>94,19; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,51; 100,0</t>
+          <t>91,8; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,59; 100,0</t>
+          <t>93,42; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,62; 98,34</t>
+          <t>85,27; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,81; 100,0</t>
+          <t>95,89; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,81; 99,09</t>
+          <t>91,67; 99,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,44; 97,9</t>
+          <t>90,45; 97,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,33; 98,0</t>
+          <t>90,93; 98,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,22; 99,5</t>
+          <t>93,48; 99,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,61; 98,67</t>
+          <t>92,49; 98,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,68; 99,5</t>
+          <t>95,71; 99,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,94; 97,79</t>
+          <t>91,95; 97,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,04; 98,24</t>
+          <t>93,08; 98,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 98,14</t>
+          <t>93,42; 98,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,89; 98,5</t>
+          <t>94,82; 98,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,68; 97,34</t>
+          <t>92,88; 97,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,69; 98,36</t>
+          <t>94,44; 98,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,08; 95,26</t>
+          <t>86,51; 95,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,19; 97,01</t>
+          <t>89,01; 96,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,14; 93,88</t>
+          <t>86,01; 94,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,98; 92,1</t>
+          <t>81,61; 92,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,66; 95,81</t>
+          <t>89,77; 95,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,1; 97,6</t>
+          <t>93,03; 97,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,18; 97,83</t>
+          <t>93,59; 97,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,33; 93,66</t>
+          <t>87,28; 93,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,81; 94,75</t>
+          <t>89,81; 94,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,4; 96,8</t>
+          <t>92,75; 96,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,17; 95,71</t>
+          <t>91,32; 95,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,23; 92,06</t>
+          <t>86,04; 92,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,11; 92,86</t>
+          <t>80,44; 92,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,98; 95,41</t>
+          <t>86,31; 95,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,3; 97,01</t>
+          <t>88,5; 97,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,42; 91,84</t>
+          <t>75,67; 91,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,98; 94,92</t>
+          <t>86,38; 94,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,65; 98,76</t>
+          <t>94,0; 99,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,3; 96,7</t>
+          <t>89,54; 96,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,77; 90,8</t>
+          <t>80,89; 90,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,31; 92,96</t>
+          <t>86,25; 92,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,93; 96,73</t>
+          <t>91,91; 96,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,06; 96,14</t>
+          <t>91,29; 95,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,47; 89,55</t>
+          <t>81,82; 89,99</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,36; 91,55</t>
+          <t>82,2; 91,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 95,77</t>
+          <t>86,94; 95,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,18; 90,16</t>
+          <t>80,68; 90,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,15; 93,08</t>
+          <t>85,3; 93,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,26; 96,3</t>
+          <t>91,16; 96,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>89,83; 95,96</t>
+          <t>90,35; 96,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,48; 94,06</t>
+          <t>86,51; 94,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,33; 90,01</t>
+          <t>82,48; 89,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,88; 93,59</t>
+          <t>88,76; 93,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,46; 95,07</t>
+          <t>90,23; 94,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,73; 91,29</t>
+          <t>85,89; 91,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,1; 90,69</t>
+          <t>85,14; 90,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,05; 92,54</t>
+          <t>87,93; 92,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,07; 94,92</t>
+          <t>91,06; 95,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,84; 93,23</t>
+          <t>88,97; 93,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,0; 92,01</t>
+          <t>86,71; 92,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,03; 95,2</t>
+          <t>92,06; 95,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,58; 97,08</t>
+          <t>94,59; 97,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,23; 95,13</t>
+          <t>92,32; 95,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>87,86; 91,53</t>
+          <t>87,84; 91,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>91,19; 93,84</t>
+          <t>91,35; 93,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,65; 95,91</t>
+          <t>93,64; 95,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>91,6; 93,93</t>
+          <t>91,39; 93,85</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>88,06; 91,11</t>
+          <t>88,16; 91,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>97,31%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100</t>
+          <t>93,05; 99,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,25; 100,0</t>
+          <t>91,37; 97,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>92,51; 98,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,73; 100</t>
+          <t>93,63; 99,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,13; 100,0</t>
+          <t>93,0; 98,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>96,29; 99,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,38; 96,45</t>
+          <t>90,48; 97,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,19; 100,0</t>
+          <t>94,05; 98,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,8; 100,0</t>
+          <t>93,96; 98,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,42; 100,0</t>
+          <t>95,2; 98,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,27; 100,0</t>
+          <t>92,7; 97,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,89; 100,0</t>
+          <t>95,47; 98,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>89,28%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,67; 99,1</t>
+          <t>86,51; 95,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,45; 97,92</t>
+          <t>89,01; 96,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,93; 98,04</t>
+          <t>86,01; 94,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 99,55</t>
+          <t>81,35; 92,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,49; 98,63</t>
+          <t>89,77; 95,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,71; 99,5</t>
+          <t>93,03; 97,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,95; 97,92</t>
+          <t>93,59; 97,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,08; 98,26</t>
+          <t>87,39; 93,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,42; 98,13</t>
+          <t>89,81; 94,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,82; 98,47</t>
+          <t>92,75; 96,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,88; 97,38</t>
+          <t>91,32; 95,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,44; 98,17</t>
+          <t>85,99; 92,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,32%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>86,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,51; 95,35</t>
+          <t>80,44; 92,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,01; 96,75</t>
+          <t>86,31; 95,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,01; 94,09</t>
+          <t>88,5; 97,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,61; 92,26</t>
+          <t>75,38; 91,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,77; 95,81</t>
+          <t>86,38; 94,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,03; 97,7</t>
+          <t>94,0; 99,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,59; 97,9</t>
+          <t>89,54; 96,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,28; 93,68</t>
+          <t>80,92; 90,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,81; 94,88</t>
+          <t>86,25; 92,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,75; 96,76</t>
+          <t>91,91; 96,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,59</t>
+          <t>91,29; 95,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,04; 92,08</t>
+          <t>81,56; 89,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>88,94%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,44; 92,67</t>
+          <t>82,2; 91,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,31; 95,32</t>
+          <t>86,94; 95,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,5; 97,04</t>
+          <t>80,68; 90,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,67; 91,57</t>
+          <t>85,34; 93,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,38; 94,84</t>
+          <t>91,16; 96,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,0; 99,07</t>
+          <t>90,35; 96,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,54; 96,25</t>
+          <t>86,51; 94,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,89; 90,54</t>
+          <t>84,05; 94,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,25; 92,99</t>
+          <t>88,76; 93,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,91; 96,74</t>
+          <t>90,23; 94,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,29; 95,97</t>
+          <t>85,89; 91,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 89,99</t>
+          <t>85,97; 92,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>90,03%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,2; 91,32</t>
+          <t>87,93; 92,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,94; 95,38</t>
+          <t>91,06; 95,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,68; 90,5</t>
+          <t>88,97; 93,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,3; 93,47</t>
+          <t>86,62; 92,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,16; 96,36</t>
+          <t>92,06; 95,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,09</t>
+          <t>94,59; 97,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,51; 94,05</t>
+          <t>92,32; 95,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,48; 89,86</t>
+          <t>88,3; 92,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>88,76; 93,87</t>
+          <t>91,35; 93,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>90,23; 94,9</t>
+          <t>93,64; 95,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,89; 91,48</t>
+          <t>91,39; 93,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,54</t>
+          <t>88,32; 91,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>90,58%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>93,27%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>89,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>93,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>95,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>93,86%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>89,71%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>92,56%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>94,85%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>92,77%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>89,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>87,93; 92,67</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>91,06; 95,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>88,97; 93,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>86,71; 92,1</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>92,06; 95,19</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>94,59; 97,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>92,32; 95,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>87,84; 91,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>91,35; 93,88</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>93,64; 95,84</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>91,39; 93,85</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>88,16; 91,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,05; 99,24</t>
+          <t>92,33; 99,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,37; 97,81</t>
+          <t>91,37; 98,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,51; 98,39</t>
+          <t>92,96; 98,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,63; 99,6</t>
+          <t>94,15; 99,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,0; 98,26</t>
+          <t>92,65; 98,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,29; 99,58</t>
+          <t>95,92; 99,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,48; 97,16</t>
+          <t>90,82; 97,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,05; 98,28</t>
+          <t>94,11; 98,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,96; 98,07</t>
+          <t>94,04; 98,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,2; 98,54</t>
+          <t>95,11; 98,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,04</t>
+          <t>92,69; 97,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,47; 98,53</t>
+          <t>95,17; 98,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,51; 95,35</t>
+          <t>86,59; 95,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,01; 96,75</t>
+          <t>89,17; 96,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,01; 94,09</t>
+          <t>85,68; 93,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,35; 92,13</t>
+          <t>80,67; 92,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,77; 95,81</t>
+          <t>89,61; 95,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,03; 97,7</t>
+          <t>92,94; 97,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,59; 97,9</t>
+          <t>93,43; 97,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,39; 93,71</t>
+          <t>87,47; 93,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,81; 94,88</t>
+          <t>89,74; 94,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,75; 96,76</t>
+          <t>92,43; 96,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,59</t>
+          <t>91,21; 95,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,99; 92,0</t>
+          <t>85,39; 91,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,44; 92,67</t>
+          <t>80,31; 92,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,31; 95,32</t>
+          <t>86,66; 95,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,5; 97,04</t>
+          <t>89,18; 96,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,38; 91,45</t>
+          <t>77,17; 91,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,38; 94,84</t>
+          <t>87,33; 95,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,0; 99,07</t>
+          <t>93,46; 98,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,54; 96,25</t>
+          <t>90,0; 96,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>80,92; 90,44</t>
+          <t>80,54; 90,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,25; 92,99</t>
+          <t>86,57; 92,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,91; 96,74</t>
+          <t>91,72; 96,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,29; 95,97</t>
+          <t>90,97; 96,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>81,56; 89,94</t>
+          <t>80,93; 89,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,2; 91,32</t>
+          <t>82,16; 91,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,94; 95,38</t>
+          <t>87,4; 95,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,68; 90,5</t>
+          <t>81,05; 90,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,34; 93,44</t>
+          <t>85,53; 93,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,16; 96,36</t>
+          <t>90,98; 96,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,09</t>
+          <t>90,51; 95,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 94,05</t>
+          <t>86,31; 93,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,05; 94,05</t>
+          <t>84,16; 93,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,76; 93,87</t>
+          <t>89,13; 93,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,23; 94,9</t>
+          <t>90,45; 95,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85,89; 91,48</t>
+          <t>85,84; 91,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,97; 92,56</t>
+          <t>85,97; 93,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,93; 92,67</t>
+          <t>88,23; 92,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,13</t>
+          <t>91,07; 95,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,97; 93,21</t>
+          <t>89,0; 93,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,62; 92,09</t>
+          <t>87,11; 92,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,06; 95,19</t>
+          <t>92,25; 95,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>94,59; 97,06</t>
+          <t>94,61; 97,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,25</t>
+          <t>92,2; 95,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,3; 92,72</t>
+          <t>88,42; 92,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,35; 93,88</t>
+          <t>91,25; 93,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,84</t>
+          <t>93,64; 95,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>91,39; 93,85</t>
+          <t>91,45; 93,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,32; 91,78</t>
+          <t>88,47; 91,88</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico de la seguridad social en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>123106</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>167271</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>181286</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>110846</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>206217</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>229823</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>230770</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>162778</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>329325</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>397094</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>412056</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>273624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>117230; 126003</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>160070; 172027</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>175053; 185369</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>106491; 112667</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>198366; 210159</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>223464; 231984</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>221518; 236839</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>158189; 165542</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>320759; 335231</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>388186; 402245</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>400643; 419546</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>267613; 276913</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>174416</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>219361</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>237796</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>160750</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>286183</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>333741</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>333389</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>197530</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>460600</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>553103</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>571185</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>358281</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>164232; 180800</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>208308; 226166</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>225080; 246599</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>148628; 169556</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>275474; 293728</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>324349; 339948</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>324370; 339869</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189849; 203610</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>446092; 470495</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>538453; 563721</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>556275; 582589</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>342651; 368932</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>125875</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>160378</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>163216</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>114492</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>182538</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>222606</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>232421</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>128466</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>308412</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>382983</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>395637</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>242958</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>115521; 133170</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>152002; 166687</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>154953; 168486</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>103146; 122608</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>173921; 189522</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>214528; 226570</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>223187; 238900</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>119822; 134707</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>296938; 318885</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>371416; 390918</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>383659; 405075</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>228592; 254005</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170641</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>170104</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>188118</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>189099</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>308342</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>304001</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>275707</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>320553</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>478984</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>474105</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>463825</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>509652</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>160487; 178076</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>161404; 176794</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177523; 197467</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>179913; 196827</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>298133; 315134</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>294181; 311699</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>261842; 284615</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>305211; 339474</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>466170; 490303</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>460989; 485080</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>448468; 478216</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>492587; 533624</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>659</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>594040</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>717114</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>770415</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>575187</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>983282</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1090170</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1072288</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>809327</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1577321</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1807284</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1842702</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1384514</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>578628; 608216</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>700171; 731094</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>751017; 785293</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>558659; 590780</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>967160; 998057</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1075256; 1103167</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1053380; 1087911</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>792725; 830583</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1555133; 1600341</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1784154; 1825881</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1816540; 1865449</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1360526; 1413011</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>